--- a/KMO_IO_M/V1_3OUT/Quote_W79317AXR6-300sets-BOM 2019-4-3.xlsx
+++ b/KMO_IO_M/V1_3OUT/Quote_W79317AXR6-300sets-BOM 2019-4-3.xlsx
@@ -1,20 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\celikada\Documents\GitHub\eagle\KMO_IO_M\V1_3OUT\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="13500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13500"/>
   </bookViews>
   <sheets>
     <sheet name="W79317AXR6-300sets-BOM" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="201">
   <si>
     <t>300sets</t>
   </si>
@@ -625,25 +630,45 @@
   <si>
     <t>Mini-Combicon 3.81mm horizontal 6-polig</t>
   </si>
+  <si>
+    <t>Answ</t>
+  </si>
+  <si>
+    <t>DS01V, BD01</t>
+  </si>
+  <si>
+    <t>FC68148S, PRT-12748 Barrel Connector</t>
+  </si>
+  <si>
+    <t>ENC28J60/SS SSOP28</t>
+  </si>
+  <si>
+    <t>TANT 10UF 16V A3216</t>
+  </si>
+  <si>
+    <t>49.9R</t>
+  </si>
+  <si>
+    <t>LTST-C170TBKT  blue</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> LTST-C170KSKT  yellow</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="7">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="24" formatCode="\$#,##0_);[Red]\(\$#,##0\)"/>
-    <numFmt numFmtId="176" formatCode="\$#,##0.000_);[Red]\(\$#,##0.000\)"/>
-    <numFmt numFmtId="177" formatCode="\$#,##0.000;\-\$#,##0.000"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="3">
+    <numFmt numFmtId="168" formatCode="\$#,##0_);[Red]\(\$#,##0\)"/>
+    <numFmt numFmtId="169" formatCode="\$#,##0.000_);[Red]\(\$#,##0.000\)"/>
+    <numFmt numFmtId="170" formatCode="\$#,##0.000;\-\$#,##0.000"/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -667,344 +692,21 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="major"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -1012,260 +714,9 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.399975585192419"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1273,7 +724,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1285,7 +736,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1294,7 +745,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1309,68 +760,24 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="24" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1655,33 +1062,34 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:I90"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="D71" sqref="D71"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.55833333333333" style="1" customWidth="1"/>
-    <col min="2" max="2" width="11.625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="32" style="2" customWidth="1"/>
-    <col min="4" max="4" width="8.375" style="3" customWidth="1"/>
-    <col min="5" max="5" width="9" style="4"/>
-    <col min="6" max="6" width="24.1083333333333" style="4" customWidth="1"/>
-    <col min="7" max="7" width="29.2166666666667" style="4" customWidth="1"/>
-    <col min="8" max="8" width="27.2166666666667" style="4" customWidth="1"/>
-    <col min="9" max="9" width="39.5583333333333" style="4" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="4"/>
+    <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="36.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.7109375" style="10" customWidth="1"/>
+    <col min="5" max="5" width="8.42578125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="9" style="4"/>
+    <col min="7" max="7" width="16.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="34.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="133.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1691,41 +1099,44 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="10" t="s">
+        <v>193</v>
+      </c>
+      <c r="E1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="F1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="G1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="H1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="I1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="J1" s="7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="2:9">
+    <row r="2" spans="1:10">
       <c r="B2" s="8">
-        <f>A2*D2*300</f>
+        <f>A2*E2*300</f>
         <v>0</v>
       </c>
       <c r="C2" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="3">
-        <v>1</v>
-      </c>
-      <c r="E2" s="7" t="s">
+      <c r="D2" s="12" t="s">
+        <v>195</v>
+      </c>
+      <c r="E2" s="3">
+        <v>1</v>
+      </c>
+      <c r="F2" s="7" t="s">
         <v>10</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>11</v>
       </c>
       <c r="G2" s="7" t="s">
         <v>11</v>
@@ -1734,172 +1145,177 @@
         <v>11</v>
       </c>
       <c r="I2" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" s="7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="2:9">
+    <row r="3" spans="1:10">
       <c r="B3" s="8">
-        <f t="shared" ref="B3:B34" si="0">A3*D3*300</f>
+        <f t="shared" ref="B3:B34" si="0">A3*E3*300</f>
         <v>0</v>
       </c>
       <c r="C3" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="3">
-        <v>1</v>
-      </c>
-      <c r="E3" s="7" t="s">
+      <c r="D3" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="E3" s="3">
+        <v>1</v>
+      </c>
+      <c r="F3" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="4"/>
-      <c r="G3" s="7" t="s">
+      <c r="H3" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="I3" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="I3" s="7" t="s">
+      <c r="J3" s="7" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:10">
       <c r="A4" s="1">
-        <v>0.033</v>
+        <v>3.3000000000000002E-2</v>
       </c>
       <c r="B4" s="1">
         <f t="shared" si="0"/>
         <v>9.9</v>
       </c>
-      <c r="D4" s="3">
-        <v>1</v>
-      </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="3">
+        <v>1</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="G4" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="H4" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="H4" s="4">
+      <c r="I4" s="4">
         <v>805</v>
       </c>
-      <c r="I4" s="7" t="s">
+      <c r="J4" s="7" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:10">
       <c r="A5" s="1">
-        <v>0.033</v>
+        <v>3.3000000000000002E-2</v>
       </c>
       <c r="B5" s="1">
         <f t="shared" si="0"/>
         <v>9.9</v>
       </c>
-      <c r="D5" s="3">
-        <v>1</v>
-      </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="3">
+        <v>1</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="H5" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="H5" s="4">
+      <c r="I5" s="4">
         <v>805</v>
       </c>
-      <c r="I5" s="7" t="s">
+      <c r="J5" s="7" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:10">
       <c r="A6" s="1">
-        <v>0.033</v>
+        <v>3.3000000000000002E-2</v>
       </c>
       <c r="B6" s="1">
         <f t="shared" si="0"/>
         <v>9.9</v>
       </c>
-      <c r="D6" s="3">
-        <v>1</v>
-      </c>
-      <c r="E6" s="7" t="s">
+      <c r="E6" s="3">
+        <v>1</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="G6" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="H6" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="H6" s="4">
+      <c r="I6" s="4">
         <v>805</v>
       </c>
-      <c r="I6" s="7" t="s">
+      <c r="J6" s="7" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:10">
       <c r="A7" s="1">
-        <v>0.0088</v>
+        <v>8.8000000000000005E-3</v>
       </c>
       <c r="B7" s="1">
         <f t="shared" si="0"/>
         <v>2.64</v>
       </c>
-      <c r="D7" s="3">
-        <v>1</v>
-      </c>
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="3">
+        <v>1</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="G7" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="H7" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="H7" s="4">
+      <c r="I7" s="4">
         <v>805</v>
       </c>
-      <c r="I7" s="7" t="s">
+      <c r="J7" s="7" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:10">
       <c r="A8" s="1">
-        <v>0.0088</v>
+        <v>8.8000000000000005E-3</v>
       </c>
       <c r="B8" s="1">
         <f t="shared" si="0"/>
         <v>2.64</v>
       </c>
-      <c r="D8" s="3">
-        <v>1</v>
-      </c>
-      <c r="E8" s="7" t="s">
+      <c r="E8" s="3">
+        <v>1</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="H8" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="H8" s="4">
+      <c r="I8" s="4">
         <v>805</v>
       </c>
-      <c r="I8" s="7" t="s">
+      <c r="J8" s="7" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:10">
       <c r="A9" s="1">
-        <v>0.132</v>
+        <v>0.13200000000000001</v>
       </c>
       <c r="B9" s="1">
         <f t="shared" si="0"/>
@@ -1908,80 +1324,83 @@
       <c r="C9" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="D9" s="3">
-        <v>1</v>
-      </c>
-      <c r="E9" s="7" t="s">
+      <c r="D9" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="E9" s="3">
+        <v>1</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="G9" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="G9" s="7" t="s">
+      <c r="H9" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="H9" s="7" t="s">
+      <c r="I9" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="I9" s="7" t="s">
+      <c r="J9" s="7" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:10">
       <c r="A10" s="1">
-        <v>0.0088</v>
+        <v>8.8000000000000005E-3</v>
       </c>
       <c r="B10" s="1">
         <f t="shared" si="0"/>
         <v>2.64</v>
       </c>
-      <c r="D10" s="3">
-        <v>1</v>
-      </c>
-      <c r="E10" s="7" t="s">
+      <c r="E10" s="3">
+        <v>1</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="H10" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="H10" s="4">
+      <c r="I10" s="4">
         <v>805</v>
       </c>
-      <c r="I10" s="7" t="s">
+      <c r="J10" s="7" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:10">
       <c r="A11" s="1">
-        <v>0.0088</v>
+        <v>8.8000000000000005E-3</v>
       </c>
       <c r="B11" s="1">
         <f t="shared" si="0"/>
         <v>2.64</v>
       </c>
-      <c r="D11" s="3">
-        <v>1</v>
-      </c>
-      <c r="E11" s="7" t="s">
+      <c r="E11" s="3">
+        <v>1</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="H11" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="H11" s="4">
+      <c r="I11" s="4">
         <v>805</v>
       </c>
-      <c r="I11" s="7" t="s">
+      <c r="J11" s="7" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="2:9">
+    <row r="12" spans="1:10">
       <c r="B12" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1989,26 +1408,27 @@
       <c r="C12" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="3">
-        <v>1</v>
-      </c>
-      <c r="E12" s="7" t="s">
+      <c r="D12" s="12"/>
+      <c r="E12" s="3">
+        <v>1</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="G12" s="7" t="s">
+      <c r="H12" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="H12" s="4">
+      <c r="I12" s="4">
         <v>805</v>
       </c>
-      <c r="I12" s="7" t="s">
+      <c r="J12" s="7" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:10">
       <c r="A13" s="1">
         <v>2.31</v>
       </c>
@@ -2019,136 +1439,139 @@
       <c r="C13" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="D13" s="3">
-        <v>1</v>
-      </c>
-      <c r="E13" s="7" t="s">
+      <c r="D13" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="E13" s="3">
+        <v>1</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>41</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>42</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>42</v>
       </c>
       <c r="H13" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="I13" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="I13" s="7" t="s">
+      <c r="J13" s="7" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:10">
       <c r="A14" s="1">
-        <v>0.0088</v>
+        <v>8.8000000000000005E-3</v>
       </c>
       <c r="B14" s="1">
         <f t="shared" si="0"/>
         <v>2.64</v>
       </c>
-      <c r="D14" s="3">
-        <v>1</v>
-      </c>
-      <c r="E14" s="7" t="s">
+      <c r="E14" s="3">
+        <v>1</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="H14" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="H14" s="4">
+      <c r="I14" s="4">
         <v>805</v>
       </c>
-      <c r="I14" s="7" t="s">
+      <c r="J14" s="7" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:10">
       <c r="A15" s="1">
-        <v>0.0088</v>
+        <v>8.8000000000000005E-3</v>
       </c>
       <c r="B15" s="1">
         <f t="shared" si="0"/>
         <v>2.64</v>
       </c>
-      <c r="D15" s="3">
-        <v>1</v>
-      </c>
-      <c r="E15" s="7" t="s">
+      <c r="E15" s="3">
+        <v>1</v>
+      </c>
+      <c r="F15" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="G15" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="G15" s="7" t="s">
+      <c r="H15" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="H15" s="4">
+      <c r="I15" s="4">
         <v>805</v>
       </c>
-      <c r="I15" s="7" t="s">
+      <c r="J15" s="7" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:10">
       <c r="A16" s="1">
-        <v>0.0088</v>
+        <v>8.8000000000000005E-3</v>
       </c>
       <c r="B16" s="1">
         <f t="shared" si="0"/>
         <v>2.64</v>
       </c>
-      <c r="D16" s="3">
-        <v>1</v>
-      </c>
-      <c r="E16" s="7" t="s">
+      <c r="E16" s="3">
+        <v>1</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="H16" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="H16" s="4">
+      <c r="I16" s="4">
         <v>805</v>
       </c>
-      <c r="I16" s="7" t="s">
+      <c r="J16" s="7" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:10">
       <c r="A17" s="1">
-        <v>0.0088</v>
+        <v>8.8000000000000005E-3</v>
       </c>
       <c r="B17" s="1">
         <f t="shared" si="0"/>
         <v>2.64</v>
       </c>
-      <c r="D17" s="3">
-        <v>1</v>
-      </c>
-      <c r="E17" s="7" t="s">
+      <c r="E17" s="3">
+        <v>1</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="H17" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="H17" s="4">
+      <c r="I17" s="4">
         <v>805</v>
       </c>
-      <c r="I17" s="7" t="s">
+      <c r="J17" s="7" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:10">
       <c r="A18" s="1">
-        <v>0.0088</v>
+        <v>8.8000000000000005E-3</v>
       </c>
       <c r="B18" s="1">
         <f t="shared" si="0"/>
@@ -2157,28 +1580,31 @@
       <c r="C18" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="D18" s="3">
-        <v>1</v>
-      </c>
-      <c r="E18" s="7" t="s">
+      <c r="D18" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="E18" s="3">
+        <v>1</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="G18" s="7" t="s">
+      <c r="H18" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="H18" s="4">
+      <c r="I18" s="4">
         <v>805</v>
       </c>
-      <c r="I18" s="7" t="s">
+      <c r="J18" s="7" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:10">
       <c r="A19" s="1">
-        <v>0.0088</v>
+        <v>8.8000000000000005E-3</v>
       </c>
       <c r="B19" s="1">
         <f t="shared" si="0"/>
@@ -2187,28 +1613,31 @@
       <c r="C19" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="D19" s="3">
-        <v>1</v>
-      </c>
-      <c r="E19" s="7" t="s">
+      <c r="D19" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="E19" s="3">
+        <v>1</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="G19" s="7" t="s">
+      <c r="H19" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="H19" s="4">
+      <c r="I19" s="4">
         <v>805</v>
       </c>
-      <c r="I19" s="7" t="s">
+      <c r="J19" s="7" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:10">
       <c r="A20" s="1">
-        <v>0.0088</v>
+        <v>8.8000000000000005E-3</v>
       </c>
       <c r="B20" s="1">
         <f t="shared" si="0"/>
@@ -2217,28 +1646,31 @@
       <c r="C20" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="D20" s="3">
-        <v>1</v>
-      </c>
-      <c r="E20" s="7" t="s">
+      <c r="D20" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="E20" s="3">
+        <v>1</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="G20" s="7" t="s">
+      <c r="H20" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="H20" s="4">
+      <c r="I20" s="4">
         <v>805</v>
       </c>
-      <c r="I20" s="7" t="s">
+      <c r="J20" s="7" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:10">
       <c r="A21" s="1">
-        <v>0.0088</v>
+        <v>8.8000000000000005E-3</v>
       </c>
       <c r="B21" s="1">
         <f t="shared" si="0"/>
@@ -2247,28 +1679,31 @@
       <c r="C21" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="D21" s="3">
-        <v>1</v>
-      </c>
-      <c r="E21" s="7" t="s">
+      <c r="D21" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="E21" s="3">
+        <v>1</v>
+      </c>
+      <c r="F21" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="G21" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="G21" s="7" t="s">
+      <c r="H21" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="H21" s="4">
+      <c r="I21" s="4">
         <v>805</v>
       </c>
-      <c r="I21" s="7" t="s">
+      <c r="J21" s="7" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:10">
       <c r="A22" s="1">
-        <v>0.0088</v>
+        <v>8.8000000000000005E-3</v>
       </c>
       <c r="B22" s="1">
         <f t="shared" si="0"/>
@@ -2277,28 +1712,31 @@
       <c r="C22" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="D22" s="3">
-        <v>1</v>
-      </c>
-      <c r="E22" s="7" t="s">
+      <c r="D22" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="E22" s="3">
+        <v>1</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="G22" s="7" t="s">
+      <c r="H22" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="H22" s="4">
+      <c r="I22" s="4">
         <v>805</v>
       </c>
-      <c r="I22" s="7" t="s">
+      <c r="J22" s="7" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:10">
       <c r="A23" s="1">
-        <v>0.0385</v>
+        <v>3.85E-2</v>
       </c>
       <c r="B23" s="1">
         <f t="shared" si="0"/>
@@ -2307,28 +1745,31 @@
       <c r="C23" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="D23" s="3">
-        <v>1</v>
-      </c>
-      <c r="E23" s="7" t="s">
+      <c r="D23" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="E23" s="3">
+        <v>1</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="G23" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="G23" s="7" t="s">
+      <c r="H23" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="H23" s="7" t="s">
+      <c r="I23" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="I23" s="7" t="s">
+      <c r="J23" s="7" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:10">
       <c r="A24" s="1">
-        <v>0.0385</v>
+        <v>3.85E-2</v>
       </c>
       <c r="B24" s="1">
         <f t="shared" si="0"/>
@@ -2337,28 +1778,31 @@
       <c r="C24" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="D24" s="3">
-        <v>1</v>
-      </c>
-      <c r="E24" s="7" t="s">
+      <c r="D24" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="E24" s="3">
+        <v>1</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="G24" s="7" t="s">
+      <c r="H24" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="H24" s="7" t="s">
+      <c r="I24" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="I24" s="7" t="s">
+      <c r="J24" s="7" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:10">
       <c r="A25" s="1">
-        <v>0.0385</v>
+        <v>3.85E-2</v>
       </c>
       <c r="B25" s="1">
         <f t="shared" si="0"/>
@@ -2367,28 +1811,31 @@
       <c r="C25" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="D25" s="3">
-        <v>1</v>
-      </c>
-      <c r="E25" s="7" t="s">
+      <c r="D25" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="E25" s="3">
+        <v>1</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="G25" s="7" t="s">
+      <c r="H25" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="H25" s="7" t="s">
+      <c r="I25" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="I25" s="7" t="s">
+      <c r="J25" s="7" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:10">
       <c r="A26" s="1">
-        <v>0.0385</v>
+        <v>3.85E-2</v>
       </c>
       <c r="B26" s="1">
         <f t="shared" si="0"/>
@@ -2397,28 +1844,31 @@
       <c r="C26" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="D26" s="3">
-        <v>1</v>
-      </c>
-      <c r="E26" s="7" t="s">
+      <c r="D26" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="E26" s="3">
+        <v>1</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="G26" s="7" t="s">
+      <c r="H26" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="H26" s="7" t="s">
+      <c r="I26" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="I26" s="7" t="s">
+      <c r="J26" s="7" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:10">
       <c r="A27" s="1">
-        <v>0.0385</v>
+        <v>3.85E-2</v>
       </c>
       <c r="B27" s="1">
         <f t="shared" si="0"/>
@@ -2427,28 +1877,31 @@
       <c r="C27" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="D27" s="3">
-        <v>1</v>
-      </c>
-      <c r="E27" s="7" t="s">
+      <c r="D27" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="E27" s="3">
+        <v>1</v>
+      </c>
+      <c r="F27" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="F27" s="7" t="s">
+      <c r="G27" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="G27" s="7" t="s">
+      <c r="H27" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="H27" s="7" t="s">
+      <c r="I27" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="I27" s="7" t="s">
+      <c r="J27" s="7" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:10">
       <c r="A28" s="1">
-        <v>0.0385</v>
+        <v>3.85E-2</v>
       </c>
       <c r="B28" s="1">
         <f t="shared" si="0"/>
@@ -2457,28 +1910,31 @@
       <c r="C28" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="D28" s="3">
-        <v>1</v>
-      </c>
-      <c r="E28" s="7" t="s">
+      <c r="D28" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="E28" s="3">
+        <v>1</v>
+      </c>
+      <c r="F28" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="F28" s="7" t="s">
+      <c r="G28" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="G28" s="7" t="s">
+      <c r="H28" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="H28" s="7" t="s">
+      <c r="I28" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="I28" s="7" t="s">
+      <c r="J28" s="7" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:10">
       <c r="A29" s="1">
-        <v>0.0385</v>
+        <v>3.85E-2</v>
       </c>
       <c r="B29" s="1">
         <f t="shared" si="0"/>
@@ -2487,28 +1943,31 @@
       <c r="C29" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="D29" s="3">
-        <v>1</v>
-      </c>
-      <c r="E29" s="7" t="s">
+      <c r="D29" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="E29" s="3">
+        <v>1</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="G29" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="G29" s="7" t="s">
+      <c r="H29" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="H29" s="7" t="s">
+      <c r="I29" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="I29" s="7" t="s">
+      <c r="J29" s="7" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:10">
       <c r="A30" s="1">
-        <v>0.0385</v>
+        <v>3.85E-2</v>
       </c>
       <c r="B30" s="1">
         <f t="shared" si="0"/>
@@ -2517,262 +1976,265 @@
       <c r="C30" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="D30" s="3">
-        <v>1</v>
-      </c>
-      <c r="E30" s="7" t="s">
+      <c r="D30" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="E30" s="3">
+        <v>1</v>
+      </c>
+      <c r="F30" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="G30" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="G30" s="7" t="s">
+      <c r="H30" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="H30" s="7" t="s">
+      <c r="I30" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="I30" s="7" t="s">
+      <c r="J30" s="7" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:10">
       <c r="A31" s="1">
-        <v>0.0088</v>
+        <v>8.8000000000000005E-3</v>
       </c>
       <c r="B31" s="1">
         <f t="shared" si="0"/>
         <v>2.64</v>
       </c>
-      <c r="D31" s="3">
-        <v>1</v>
-      </c>
-      <c r="E31" s="7" t="s">
+      <c r="E31" s="3">
+        <v>1</v>
+      </c>
+      <c r="F31" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="F31" s="7" t="s">
+      <c r="G31" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="G31" s="7" t="s">
+      <c r="H31" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="H31" s="4">
+      <c r="I31" s="4">
         <v>805</v>
       </c>
-      <c r="I31" s="7" t="s">
+      <c r="J31" s="7" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:10">
       <c r="A32" s="1">
-        <v>0.0088</v>
+        <v>8.8000000000000005E-3</v>
       </c>
       <c r="B32" s="1">
         <f t="shared" si="0"/>
         <v>2.64</v>
       </c>
-      <c r="D32" s="3">
-        <v>1</v>
-      </c>
-      <c r="E32" s="7" t="s">
+      <c r="E32" s="3">
+        <v>1</v>
+      </c>
+      <c r="F32" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="F32" s="7" t="s">
+      <c r="G32" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="G32" s="7" t="s">
+      <c r="H32" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="H32" s="4">
+      <c r="I32" s="4">
         <v>805</v>
       </c>
-      <c r="I32" s="7" t="s">
+      <c r="J32" s="7" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:10">
       <c r="A33" s="1">
-        <v>0.0088</v>
+        <v>8.8000000000000005E-3</v>
       </c>
       <c r="B33" s="1">
         <f t="shared" si="0"/>
         <v>2.64</v>
       </c>
-      <c r="D33" s="3">
-        <v>1</v>
-      </c>
-      <c r="E33" s="7" t="s">
+      <c r="E33" s="3">
+        <v>1</v>
+      </c>
+      <c r="F33" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="F33" s="7" t="s">
+      <c r="G33" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="G33" s="7" t="s">
+      <c r="H33" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="H33" s="4">
+      <c r="I33" s="4">
         <v>805</v>
       </c>
-      <c r="I33" s="7" t="s">
+      <c r="J33" s="7" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="34" spans="1:9">
+    <row r="34" spans="1:10">
       <c r="A34" s="1">
-        <v>0.0088</v>
+        <v>8.8000000000000005E-3</v>
       </c>
       <c r="B34" s="1">
         <f t="shared" si="0"/>
         <v>2.64</v>
       </c>
-      <c r="D34" s="3">
-        <v>1</v>
-      </c>
-      <c r="E34" s="7" t="s">
+      <c r="E34" s="3">
+        <v>1</v>
+      </c>
+      <c r="F34" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="F34" s="7" t="s">
+      <c r="G34" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="G34" s="7" t="s">
+      <c r="H34" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="H34" s="4">
+      <c r="I34" s="4">
         <v>805</v>
       </c>
-      <c r="I34" s="7" t="s">
+      <c r="J34" s="7" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:10">
       <c r="A35" s="1">
-        <v>0.0088</v>
+        <v>8.8000000000000005E-3</v>
       </c>
       <c r="B35" s="1">
-        <f t="shared" ref="B35:B66" si="1">A35*D35*300</f>
+        <f t="shared" ref="B35:B66" si="1">A35*E35*300</f>
         <v>2.64</v>
       </c>
-      <c r="D35" s="3">
-        <v>1</v>
-      </c>
-      <c r="E35" s="7" t="s">
+      <c r="E35" s="3">
+        <v>1</v>
+      </c>
+      <c r="F35" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="F35" s="7" t="s">
+      <c r="G35" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="G35" s="7" t="s">
+      <c r="H35" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="H35" s="4">
+      <c r="I35" s="4">
         <v>805</v>
       </c>
-      <c r="I35" s="7" t="s">
+      <c r="J35" s="7" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="36" spans="1:9">
+    <row r="36" spans="1:10">
       <c r="A36" s="1">
-        <v>0.0088</v>
+        <v>8.8000000000000005E-3</v>
       </c>
       <c r="B36" s="1">
         <f t="shared" si="1"/>
         <v>2.64</v>
       </c>
-      <c r="D36" s="3">
-        <v>1</v>
-      </c>
-      <c r="E36" s="7" t="s">
+      <c r="E36" s="3">
+        <v>1</v>
+      </c>
+      <c r="F36" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="F36" s="7" t="s">
+      <c r="G36" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="G36" s="7" t="s">
+      <c r="H36" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="H36" s="4">
+      <c r="I36" s="4">
         <v>805</v>
       </c>
-      <c r="I36" s="7" t="s">
+      <c r="J36" s="7" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="37" spans="1:9">
+    <row r="37" spans="1:10">
       <c r="A37" s="1">
-        <v>0.0088</v>
+        <v>8.8000000000000005E-3</v>
       </c>
       <c r="B37" s="1">
         <f t="shared" si="1"/>
         <v>2.64</v>
       </c>
-      <c r="D37" s="3">
-        <v>1</v>
-      </c>
-      <c r="E37" s="7" t="s">
+      <c r="E37" s="3">
+        <v>1</v>
+      </c>
+      <c r="F37" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="F37" s="7" t="s">
+      <c r="G37" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="G37" s="7" t="s">
+      <c r="H37" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="H37" s="4">
+      <c r="I37" s="4">
         <v>805</v>
       </c>
-      <c r="I37" s="7" t="s">
+      <c r="J37" s="7" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="38" spans="1:9">
+    <row r="38" spans="1:10">
       <c r="A38" s="1">
-        <v>0.0088</v>
+        <v>8.8000000000000005E-3</v>
       </c>
       <c r="B38" s="1">
         <f t="shared" si="1"/>
         <v>2.64</v>
       </c>
-      <c r="D38" s="3">
-        <v>1</v>
-      </c>
-      <c r="E38" s="7" t="s">
+      <c r="E38" s="3">
+        <v>1</v>
+      </c>
+      <c r="F38" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="F38" s="7" t="s">
+      <c r="G38" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="G38" s="7" t="s">
+      <c r="H38" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="H38" s="4">
+      <c r="I38" s="4">
         <v>805</v>
       </c>
-      <c r="I38" s="7" t="s">
+      <c r="J38" s="7" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="39" spans="2:2">
+    <row r="39" spans="1:10">
       <c r="B39" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="2:2">
+    <row r="40" spans="1:10">
       <c r="B40" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="2:2">
+    <row r="41" spans="1:10">
       <c r="B41" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:9">
+    <row r="42" spans="1:10">
       <c r="A42" s="1">
-        <v>0.0385</v>
+        <v>3.85E-2</v>
       </c>
       <c r="B42" s="1">
         <f t="shared" si="1"/>
@@ -2781,28 +2243,28 @@
       <c r="C42" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="D42" s="3">
-        <v>1</v>
-      </c>
-      <c r="E42" s="7" t="s">
+      <c r="E42" s="3">
+        <v>1</v>
+      </c>
+      <c r="F42" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="F42" s="7" t="s">
+      <c r="G42" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="G42" s="7" t="s">
+      <c r="H42" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="H42" s="7" t="s">
+      <c r="I42" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="I42" s="7" t="s">
+      <c r="J42" s="7" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="43" spans="1:9">
+    <row r="43" spans="1:10">
       <c r="A43" s="1">
-        <v>0.0385</v>
+        <v>3.85E-2</v>
       </c>
       <c r="B43" s="1">
         <f t="shared" si="1"/>
@@ -2811,28 +2273,28 @@
       <c r="C43" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="D43" s="3">
-        <v>1</v>
-      </c>
-      <c r="E43" s="7" t="s">
+      <c r="E43" s="3">
+        <v>1</v>
+      </c>
+      <c r="F43" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="F43" s="7" t="s">
+      <c r="G43" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="G43" s="7" t="s">
+      <c r="H43" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="H43" s="7" t="s">
+      <c r="I43" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="I43" s="7" t="s">
+      <c r="J43" s="7" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="44" spans="1:9">
+    <row r="44" spans="1:10">
       <c r="A44" s="1">
-        <v>0.0385</v>
+        <v>3.85E-2</v>
       </c>
       <c r="B44" s="1">
         <f t="shared" si="1"/>
@@ -2841,28 +2303,28 @@
       <c r="C44" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="D44" s="3">
-        <v>1</v>
-      </c>
-      <c r="E44" s="7" t="s">
+      <c r="E44" s="3">
+        <v>1</v>
+      </c>
+      <c r="F44" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="F44" s="7" t="s">
+      <c r="G44" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="G44" s="7" t="s">
+      <c r="H44" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="H44" s="7" t="s">
+      <c r="I44" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="I44" s="7" t="s">
+      <c r="J44" s="7" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="45" spans="1:9">
+    <row r="45" spans="1:10">
       <c r="A45" s="1">
-        <v>0.0385</v>
+        <v>3.85E-2</v>
       </c>
       <c r="B45" s="1">
         <f t="shared" si="1"/>
@@ -2871,28 +2333,31 @@
       <c r="C45" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="D45" s="3">
-        <v>1</v>
-      </c>
-      <c r="E45" s="7" t="s">
+      <c r="D45" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="E45" s="3">
+        <v>1</v>
+      </c>
+      <c r="F45" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="F45" s="7" t="s">
+      <c r="G45" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="G45" s="7" t="s">
+      <c r="H45" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="H45" s="7" t="s">
+      <c r="I45" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="I45" s="7" t="s">
+      <c r="J45" s="7" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="46" spans="1:9">
+    <row r="46" spans="1:10">
       <c r="A46" s="1">
-        <v>0.0385</v>
+        <v>3.85E-2</v>
       </c>
       <c r="B46" s="1">
         <f t="shared" si="1"/>
@@ -2901,28 +2366,31 @@
       <c r="C46" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="D46" s="3">
-        <v>1</v>
-      </c>
-      <c r="E46" s="7" t="s">
+      <c r="D46" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="E46" s="3">
+        <v>1</v>
+      </c>
+      <c r="F46" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="F46" s="7" t="s">
+      <c r="G46" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="G46" s="7" t="s">
+      <c r="H46" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="H46" s="7" t="s">
+      <c r="I46" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="I46" s="7" t="s">
+      <c r="J46" s="7" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="47" spans="1:9">
+    <row r="47" spans="1:10">
       <c r="A47" s="1">
-        <v>0.0385</v>
+        <v>3.85E-2</v>
       </c>
       <c r="B47" s="1">
         <f t="shared" si="1"/>
@@ -2931,26 +2399,29 @@
       <c r="C47" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="D47" s="3">
-        <v>1</v>
-      </c>
-      <c r="E47" s="7" t="s">
+      <c r="D47" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="E47" s="3">
+        <v>1</v>
+      </c>
+      <c r="F47" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="F47" s="7" t="s">
+      <c r="G47" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="G47" s="7" t="s">
+      <c r="H47" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="H47" s="7" t="s">
+      <c r="I47" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="I47" s="7" t="s">
+      <c r="J47" s="7" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="48" spans="2:9">
+    <row r="48" spans="1:10">
       <c r="B48" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -2958,26 +2429,27 @@
       <c r="C48" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="D48" s="3">
-        <v>1</v>
-      </c>
-      <c r="E48" s="7" t="s">
+      <c r="D48" s="12"/>
+      <c r="E48" s="3">
+        <v>1</v>
+      </c>
+      <c r="F48" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="F48" s="7" t="s">
+      <c r="G48" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="G48" s="7" t="s">
+      <c r="H48" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="H48" s="7" t="s">
+      <c r="I48" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="I48" s="7" t="s">
+      <c r="J48" s="7" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="49" spans="2:9">
+    <row r="49" spans="1:10">
       <c r="B49" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -2985,26 +2457,27 @@
       <c r="C49" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="D49" s="3">
-        <v>1</v>
-      </c>
-      <c r="E49" s="7" t="s">
+      <c r="D49" s="12"/>
+      <c r="E49" s="3">
+        <v>1</v>
+      </c>
+      <c r="F49" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="F49" s="7" t="s">
+      <c r="G49" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="G49" s="7" t="s">
+      <c r="H49" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="H49" s="7" t="s">
+      <c r="I49" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="I49" s="7" t="s">
+      <c r="J49" s="7" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="50" spans="2:9">
+    <row r="50" spans="1:10">
       <c r="B50" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -3012,107 +2485,108 @@
       <c r="C50" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="D50" s="3">
-        <v>1</v>
-      </c>
-      <c r="E50" s="7" t="s">
+      <c r="D50" s="12"/>
+      <c r="E50" s="3">
+        <v>1</v>
+      </c>
+      <c r="F50" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="F50" s="7" t="s">
+      <c r="G50" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="G50" s="7" t="s">
+      <c r="H50" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="H50" s="7" t="s">
+      <c r="I50" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="I50" s="7" t="s">
+      <c r="J50" s="7" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="51" spans="1:9">
+    <row r="51" spans="1:10">
       <c r="A51" s="1">
-        <v>0.0088</v>
+        <v>8.8000000000000005E-3</v>
       </c>
       <c r="B51" s="1">
         <f t="shared" si="1"/>
         <v>2.64</v>
       </c>
-      <c r="D51" s="3">
-        <v>1</v>
-      </c>
-      <c r="E51" s="7" t="s">
+      <c r="E51" s="3">
+        <v>1</v>
+      </c>
+      <c r="F51" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="F51" s="7" t="s">
+      <c r="G51" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="G51" s="7" t="s">
+      <c r="H51" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="H51" s="4">
+      <c r="I51" s="4">
         <v>805</v>
       </c>
-      <c r="I51" s="7" t="s">
+      <c r="J51" s="7" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="52" spans="1:9">
+    <row r="52" spans="1:10">
       <c r="A52" s="1">
-        <v>0.0088</v>
+        <v>8.8000000000000005E-3</v>
       </c>
       <c r="B52" s="1">
         <f t="shared" si="1"/>
         <v>2.64</v>
       </c>
-      <c r="D52" s="3">
-        <v>1</v>
-      </c>
-      <c r="E52" s="7" t="s">
+      <c r="E52" s="3">
+        <v>1</v>
+      </c>
+      <c r="F52" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="F52" s="7" t="s">
+      <c r="G52" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="G52" s="7" t="s">
+      <c r="H52" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="H52" s="4">
+      <c r="I52" s="4">
         <v>805</v>
       </c>
-      <c r="I52" s="7" t="s">
+      <c r="J52" s="7" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="53" spans="1:9">
+    <row r="53" spans="1:10">
       <c r="A53" s="1">
-        <v>0.0088</v>
+        <v>8.8000000000000005E-3</v>
       </c>
       <c r="B53" s="1">
         <f t="shared" si="1"/>
         <v>2.64</v>
       </c>
-      <c r="D53" s="3">
-        <v>1</v>
-      </c>
-      <c r="E53" s="7" t="s">
+      <c r="E53" s="3">
+        <v>1</v>
+      </c>
+      <c r="F53" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="F53" s="7" t="s">
+      <c r="G53" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="G53" s="7" t="s">
+      <c r="H53" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="H53" s="4">
+      <c r="I53" s="4">
         <v>805</v>
       </c>
-      <c r="I53" s="7" t="s">
+      <c r="J53" s="7" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="54" spans="2:9">
+    <row r="54" spans="1:10">
       <c r="B54" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -3120,26 +2594,27 @@
       <c r="C54" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D54" s="3">
-        <v>1</v>
-      </c>
-      <c r="E54" s="7" t="s">
+      <c r="D54" s="12"/>
+      <c r="E54" s="3">
+        <v>1</v>
+      </c>
+      <c r="F54" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="F54" s="7" t="s">
+      <c r="G54" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="G54" s="7" t="s">
+      <c r="H54" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="H54" s="7" t="s">
+      <c r="I54" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="I54" s="7" t="s">
+      <c r="J54" s="7" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="55" spans="2:9">
+    <row r="55" spans="1:10">
       <c r="B55" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -3147,58 +2622,59 @@
       <c r="C55" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D55" s="3">
-        <v>1</v>
-      </c>
-      <c r="E55" s="7" t="s">
+      <c r="D55" s="12"/>
+      <c r="E55" s="3">
+        <v>1</v>
+      </c>
+      <c r="F55" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="F55" s="7" t="s">
+      <c r="G55" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="G55" s="7" t="s">
+      <c r="H55" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="H55" s="7" t="s">
+      <c r="I55" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="I55" s="7" t="s">
+      <c r="J55" s="7" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="56" spans="1:9">
+    <row r="56" spans="1:10">
       <c r="A56" s="1">
-        <v>1.485</v>
+        <v>1.4850000000000001</v>
       </c>
       <c r="B56" s="1">
         <f t="shared" si="1"/>
-        <v>445.5</v>
+        <v>445.50000000000006</v>
       </c>
       <c r="C56" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="D56" s="3">
-        <v>1</v>
-      </c>
-      <c r="E56" s="7" t="s">
+      <c r="E56" s="3">
+        <v>1</v>
+      </c>
+      <c r="F56" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="F56" s="7" t="s">
+      <c r="G56" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="G56" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="H56" s="7" t="s">
         <v>119</v>
       </c>
       <c r="I56" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="J56" s="7" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="57" spans="1:9">
+    <row r="57" spans="1:10">
       <c r="A57" s="1">
-        <v>0.055</v>
+        <v>5.5E-2</v>
       </c>
       <c r="B57" s="1">
         <f t="shared" si="1"/>
@@ -3207,26 +2683,26 @@
       <c r="C57" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="D57" s="3">
-        <v>1</v>
-      </c>
-      <c r="E57" s="7" t="s">
+      <c r="E57" s="3">
+        <v>1</v>
+      </c>
+      <c r="F57" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="F57" s="7" t="s">
+      <c r="G57" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="G57" s="7" t="s">
+      <c r="H57" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="H57" s="7" t="s">
+      <c r="I57" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="I57" s="7" t="s">
+      <c r="J57" s="7" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="58" spans="1:9">
+    <row r="58" spans="1:10">
       <c r="A58" s="1">
         <v>0.11</v>
       </c>
@@ -3234,26 +2710,26 @@
         <f t="shared" si="1"/>
         <v>33</v>
       </c>
-      <c r="D58" s="3">
-        <v>1</v>
-      </c>
-      <c r="E58" s="7" t="s">
+      <c r="E58" s="3">
+        <v>1</v>
+      </c>
+      <c r="F58" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="F58" s="7" t="s">
+      <c r="G58" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="G58" s="7" t="s">
+      <c r="H58" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="H58" s="7" t="s">
+      <c r="I58" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="I58" s="7" t="s">
+      <c r="J58" s="7" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="59" spans="2:9">
+    <row r="59" spans="1:10">
       <c r="B59" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -3261,26 +2737,27 @@
       <c r="C59" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="D59" s="3">
-        <v>1</v>
-      </c>
-      <c r="E59" s="7" t="s">
+      <c r="D59" s="12"/>
+      <c r="E59" s="3">
+        <v>1</v>
+      </c>
+      <c r="F59" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="F59" s="7" t="s">
+      <c r="G59" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="G59" s="7" t="s">
+      <c r="H59" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="H59" s="4">
+      <c r="I59" s="4">
         <v>1820</v>
       </c>
-      <c r="I59" s="7" t="s">
+      <c r="J59" s="7" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="60" spans="1:9">
+    <row r="60" spans="1:10">
       <c r="A60" s="1">
         <v>1.76</v>
       </c>
@@ -3291,26 +2768,26 @@
       <c r="C60" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="D60" s="3">
-        <v>1</v>
-      </c>
-      <c r="E60" s="7" t="s">
+      <c r="E60" s="3">
+        <v>1</v>
+      </c>
+      <c r="F60" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="F60" s="7" t="s">
-        <v>134</v>
       </c>
       <c r="G60" s="7" t="s">
         <v>134</v>
       </c>
       <c r="H60" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="I60" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="I60" s="7" t="s">
+      <c r="J60" s="7" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="61" spans="2:9">
+    <row r="61" spans="1:10">
       <c r="B61" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -3318,28 +2795,29 @@
       <c r="C61" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D61" s="3">
-        <v>1</v>
-      </c>
-      <c r="E61" s="7" t="s">
+      <c r="D61" s="12"/>
+      <c r="E61" s="3">
+        <v>1</v>
+      </c>
+      <c r="F61" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="F61" s="7" t="s">
-        <v>138</v>
       </c>
       <c r="G61" s="7" t="s">
         <v>138</v>
       </c>
       <c r="H61" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="I61" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="I61" s="7" t="s">
+      <c r="J61" s="7" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="62" spans="1:9">
+    <row r="62" spans="1:10">
       <c r="A62" s="1">
-        <v>0.0385</v>
+        <v>3.85E-2</v>
       </c>
       <c r="B62" s="1">
         <f t="shared" si="1"/>
@@ -3348,26 +2826,26 @@
       <c r="C62" s="10" t="s">
         <v>141</v>
       </c>
-      <c r="D62" s="3">
-        <v>1</v>
-      </c>
-      <c r="E62" s="7" t="s">
+      <c r="E62" s="3">
+        <v>1</v>
+      </c>
+      <c r="F62" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="F62" s="7" t="s">
+      <c r="G62" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="G62" s="7" t="s">
+      <c r="H62" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="H62" s="7" t="s">
+      <c r="I62" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="I62" s="7" t="s">
+      <c r="J62" s="7" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="63" spans="2:9">
+    <row r="63" spans="1:10">
       <c r="B63" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -3375,53 +2853,54 @@
       <c r="C63" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="D63" s="3">
-        <v>1</v>
-      </c>
-      <c r="E63" s="7" t="s">
+      <c r="D63" s="12"/>
+      <c r="E63" s="3">
+        <v>1</v>
+      </c>
+      <c r="F63" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="F63" s="7" t="s">
-        <v>145</v>
       </c>
       <c r="G63" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="H63" s="11">
+      <c r="H63" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="I63" s="11">
         <v>2007100</v>
       </c>
-      <c r="I63" s="7" t="s">
+      <c r="J63" s="7" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="64" spans="1:9">
+    <row r="64" spans="1:10">
       <c r="A64" s="1">
-        <v>0.0088</v>
+        <v>8.8000000000000005E-3</v>
       </c>
       <c r="B64" s="1">
         <f t="shared" si="1"/>
         <v>2.64</v>
       </c>
-      <c r="D64" s="3">
-        <v>1</v>
-      </c>
-      <c r="E64" s="7" t="s">
+      <c r="E64" s="3">
+        <v>1</v>
+      </c>
+      <c r="F64" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="F64" s="7" t="s">
+      <c r="G64" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="G64" s="7" t="s">
+      <c r="H64" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="H64" s="4">
+      <c r="I64" s="4">
         <v>805</v>
       </c>
-      <c r="I64" s="7" t="s">
+      <c r="J64" s="7" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="65" spans="2:9">
+    <row r="65" spans="1:10">
       <c r="B65" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -3429,26 +2908,27 @@
       <c r="C65" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D65" s="3">
-        <v>1</v>
-      </c>
-      <c r="E65" s="7" t="s">
+      <c r="D65" s="12"/>
+      <c r="E65" s="3">
+        <v>1</v>
+      </c>
+      <c r="F65" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="F65" s="7" t="s">
+      <c r="G65" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="G65" s="7" t="s">
+      <c r="H65" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="H65" s="7" t="s">
+      <c r="I65" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="I65" s="7" t="s">
+      <c r="J65" s="7" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="66" spans="2:9">
+    <row r="66" spans="1:10">
       <c r="B66" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -3456,95 +2936,97 @@
       <c r="C66" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D66" s="3">
-        <v>1</v>
-      </c>
-      <c r="E66" s="7" t="s">
+      <c r="D66" s="12"/>
+      <c r="E66" s="3">
+        <v>1</v>
+      </c>
+      <c r="F66" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="F66" s="7" t="s">
+      <c r="G66" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="G66" s="7" t="s">
+      <c r="H66" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="H66" s="7" t="s">
+      <c r="I66" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="I66" s="7" t="s">
+      <c r="J66" s="7" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="67" spans="2:3">
+    <row r="67" spans="1:10">
       <c r="B67" s="8">
-        <f t="shared" ref="B67:B84" si="2">A67*D67*300</f>
+        <f t="shared" ref="B67:B84" si="2">A67*E67*300</f>
         <v>0</v>
       </c>
       <c r="C67" s="12"/>
-    </row>
-    <row r="68" spans="1:9">
+      <c r="D67" s="12"/>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" s="1">
-        <v>0.0088</v>
+        <v>8.8000000000000005E-3</v>
       </c>
       <c r="B68" s="1">
         <f t="shared" si="2"/>
         <v>2.64</v>
       </c>
-      <c r="D68" s="3">
-        <v>1</v>
-      </c>
-      <c r="E68" s="7" t="s">
+      <c r="E68" s="3">
+        <v>1</v>
+      </c>
+      <c r="F68" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="F68" s="7" t="s">
+      <c r="G68" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="G68" s="7" t="s">
+      <c r="H68" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="H68" s="4">
+      <c r="I68" s="4">
         <v>805</v>
       </c>
-      <c r="I68" s="7" t="s">
+      <c r="J68" s="7" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="69" spans="2:2">
+    <row r="69" spans="1:10">
       <c r="B69" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:9">
+    <row r="70" spans="1:10">
       <c r="A70" s="1">
-        <v>0.0088</v>
+        <v>8.8000000000000005E-3</v>
       </c>
       <c r="B70" s="1">
         <f t="shared" si="2"/>
         <v>2.64</v>
       </c>
-      <c r="D70" s="3">
-        <v>1</v>
-      </c>
-      <c r="E70" s="7" t="s">
+      <c r="E70" s="3">
+        <v>1</v>
+      </c>
+      <c r="F70" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="F70" s="7" t="s">
+      <c r="G70" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="G70" s="7" t="s">
+      <c r="H70" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="H70" s="4">
+      <c r="I70" s="4">
         <v>805</v>
       </c>
-      <c r="I70" s="7" t="s">
+      <c r="J70" s="7" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="71" spans="1:9">
+    <row r="71" spans="1:10">
       <c r="A71" s="1">
-        <v>0.275</v>
+        <v>0.27500000000000002</v>
       </c>
       <c r="B71" s="1">
         <f t="shared" si="2"/>
@@ -3553,24 +3035,23 @@
       <c r="C71" s="10" t="s">
         <v>160</v>
       </c>
-      <c r="D71" s="3">
-        <v>1</v>
-      </c>
-      <c r="E71" s="7" t="s">
+      <c r="E71" s="3">
+        <v>1</v>
+      </c>
+      <c r="F71" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="F71" s="4"/>
-      <c r="G71" s="7" t="s">
+      <c r="H71" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="H71" s="7" t="s">
+      <c r="I71" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="I71" s="7" t="s">
+      <c r="J71" s="7" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="72" spans="2:9">
+    <row r="72" spans="1:10">
       <c r="B72" s="8">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -3578,24 +3059,24 @@
       <c r="C72" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D72" s="3">
-        <v>1</v>
-      </c>
-      <c r="E72" s="7" t="s">
+      <c r="D72" s="12"/>
+      <c r="E72" s="3">
+        <v>1</v>
+      </c>
+      <c r="F72" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="F72" s="4"/>
-      <c r="G72" s="7" t="s">
-        <v>166</v>
       </c>
       <c r="H72" s="7" t="s">
         <v>166</v>
       </c>
       <c r="I72" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="J72" s="7" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="73" spans="2:9">
+    <row r="73" spans="1:10">
       <c r="B73" s="8">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -3603,24 +3084,24 @@
       <c r="C73" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D73" s="3">
-        <v>1</v>
-      </c>
-      <c r="E73" s="7" t="s">
+      <c r="D73" s="12"/>
+      <c r="E73" s="3">
+        <v>1</v>
+      </c>
+      <c r="F73" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="F73" s="4"/>
-      <c r="G73" s="7" t="s">
-        <v>166</v>
       </c>
       <c r="H73" s="7" t="s">
         <v>166</v>
       </c>
       <c r="I73" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="J73" s="7" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="74" spans="2:9">
+    <row r="74" spans="1:10">
       <c r="B74" s="8">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -3628,86 +3109,86 @@
       <c r="C74" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D74" s="3">
-        <v>1</v>
-      </c>
-      <c r="E74" s="7" t="s">
+      <c r="D74" s="12"/>
+      <c r="E74" s="3">
+        <v>1</v>
+      </c>
+      <c r="F74" s="7" t="s">
         <v>169</v>
-      </c>
-      <c r="F74" s="4"/>
-      <c r="G74" s="7" t="s">
-        <v>166</v>
       </c>
       <c r="H74" s="7" t="s">
         <v>166</v>
       </c>
       <c r="I74" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="J74" s="7" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="75" spans="1:8">
+    <row r="75" spans="1:10">
       <c r="A75" s="1">
-        <v>1.342</v>
+        <v>1.3420000000000001</v>
       </c>
       <c r="B75" s="1">
         <f t="shared" si="2"/>
         <v>402.6</v>
       </c>
-      <c r="D75" s="3">
-        <v>1</v>
-      </c>
-      <c r="E75" s="7" t="s">
+      <c r="E75" s="3">
+        <v>1</v>
+      </c>
+      <c r="F75" s="7" t="s">
         <v>170</v>
-      </c>
-      <c r="F75" s="7" t="s">
-        <v>171</v>
       </c>
       <c r="G75" s="7" t="s">
         <v>171</v>
       </c>
       <c r="H75" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="I75" s="7" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="76" spans="1:8">
+    <row r="76" spans="1:10">
       <c r="A76" s="1">
-        <v>1.485</v>
+        <v>1.4850000000000001</v>
       </c>
       <c r="B76" s="1">
         <f t="shared" si="2"/>
-        <v>445.5</v>
+        <v>445.50000000000006</v>
       </c>
       <c r="C76" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="D76" s="3">
-        <v>1</v>
-      </c>
-      <c r="E76" s="7" t="s">
+      <c r="E76" s="3">
+        <v>1</v>
+      </c>
+      <c r="F76" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="F76" s="7" t="s">
+      <c r="G76" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="G76" s="7" t="s">
+      <c r="H76" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="H76" s="7" t="s">
+      <c r="I76" s="7" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="77" spans="2:4">
+    <row r="77" spans="1:10">
       <c r="B77" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="D77" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9">
+      <c r="E77" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78" s="1">
-        <v>0.0385</v>
+        <v>3.85E-2</v>
       </c>
       <c r="B78" s="1">
         <f t="shared" si="2"/>
@@ -3716,28 +3197,28 @@
       <c r="C78" s="10" t="s">
         <v>178</v>
       </c>
-      <c r="D78" s="3">
-        <v>1</v>
-      </c>
-      <c r="E78" s="7" t="s">
+      <c r="E78" s="3">
+        <v>1</v>
+      </c>
+      <c r="F78" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="F78" s="7" t="s">
+      <c r="G78" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="G78" s="7" t="s">
+      <c r="H78" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="H78" s="7" t="s">
+      <c r="I78" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="I78" s="7" t="s">
+      <c r="J78" s="7" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="79" spans="1:9">
+    <row r="79" spans="1:10">
       <c r="A79" s="1">
-        <v>0.0385</v>
+        <v>3.85E-2</v>
       </c>
       <c r="B79" s="1">
         <f t="shared" si="2"/>
@@ -3746,80 +3227,80 @@
       <c r="C79" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="D79" s="3">
-        <v>1</v>
-      </c>
-      <c r="E79" s="7" t="s">
+      <c r="E79" s="3">
+        <v>1</v>
+      </c>
+      <c r="F79" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="F79" s="7" t="s">
+      <c r="G79" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="G79" s="7" t="s">
+      <c r="H79" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="H79" s="7" t="s">
+      <c r="I79" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="I79" s="7" t="s">
+      <c r="J79" s="7" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="80" spans="1:9">
+    <row r="80" spans="1:10">
       <c r="A80" s="1">
-        <v>0.0088</v>
+        <v>8.8000000000000005E-3</v>
       </c>
       <c r="B80" s="1">
         <f t="shared" si="2"/>
         <v>2.64</v>
       </c>
-      <c r="D80" s="3">
-        <v>1</v>
-      </c>
-      <c r="E80" s="7" t="s">
+      <c r="E80" s="3">
+        <v>1</v>
+      </c>
+      <c r="F80" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="F80" s="7" t="s">
+      <c r="G80" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="G80" s="7" t="s">
+      <c r="H80" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="H80" s="4">
+      <c r="I80" s="4">
         <v>805</v>
       </c>
-      <c r="I80" s="7" t="s">
+      <c r="J80" s="7" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="81" spans="1:9">
+    <row r="81" spans="1:10">
       <c r="A81" s="1">
-        <v>0.0088</v>
+        <v>8.8000000000000005E-3</v>
       </c>
       <c r="B81" s="1">
         <f t="shared" si="2"/>
         <v>2.64</v>
       </c>
-      <c r="D81" s="3">
-        <v>1</v>
-      </c>
-      <c r="E81" s="7" t="s">
+      <c r="E81" s="3">
+        <v>1</v>
+      </c>
+      <c r="F81" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="F81" s="7" t="s">
+      <c r="G81" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="G81" s="7" t="s">
+      <c r="H81" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="H81" s="4">
+      <c r="I81" s="4">
         <v>805</v>
       </c>
-      <c r="I81" s="7" t="s">
+      <c r="J81" s="7" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="82" spans="2:9">
+    <row r="82" spans="1:10">
       <c r="B82" s="8">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -3827,14 +3308,12 @@
       <c r="C82" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="D82" s="3">
-        <v>1</v>
-      </c>
-      <c r="E82" s="7" t="s">
+      <c r="D82" s="12"/>
+      <c r="E82" s="3">
+        <v>1</v>
+      </c>
+      <c r="F82" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="F82" s="7" t="s">
-        <v>185</v>
       </c>
       <c r="G82" s="7" t="s">
         <v>185</v>
@@ -3843,10 +3322,13 @@
         <v>185</v>
       </c>
       <c r="I82" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="J82" s="7" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="83" spans="2:9">
+    <row r="83" spans="1:10">
       <c r="B83" s="8">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -3854,14 +3336,12 @@
       <c r="C83" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="D83" s="3">
-        <v>1</v>
-      </c>
-      <c r="E83" s="7" t="s">
+      <c r="D83" s="12"/>
+      <c r="E83" s="3">
+        <v>1</v>
+      </c>
+      <c r="F83" s="7" t="s">
         <v>187</v>
-      </c>
-      <c r="F83" s="7" t="s">
-        <v>188</v>
       </c>
       <c r="G83" s="7" t="s">
         <v>188</v>
@@ -3870,10 +3350,13 @@
         <v>188</v>
       </c>
       <c r="I83" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="J83" s="7" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="84" spans="2:9">
+    <row r="84" spans="1:10">
       <c r="B84" s="8">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -3881,14 +3364,12 @@
       <c r="C84" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="D84" s="3">
-        <v>1</v>
-      </c>
-      <c r="E84" s="7" t="s">
+      <c r="D84" s="12"/>
+      <c r="E84" s="3">
+        <v>1</v>
+      </c>
+      <c r="F84" s="7" t="s">
         <v>190</v>
-      </c>
-      <c r="F84" s="7" t="s">
-        <v>191</v>
       </c>
       <c r="G84" s="7" t="s">
         <v>191</v>
@@ -3897,32 +3378,37 @@
         <v>191</v>
       </c>
       <c r="I84" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="J84" s="7" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="85" spans="2:2">
+    <row r="85" spans="1:10">
       <c r="B85" s="13">
         <f>SUM(B2:B84)</f>
-        <v>2988.81</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3">
+        <v>2988.8099999999995</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
       <c r="A88" s="14"/>
       <c r="B88" s="14"/>
       <c r="C88" s="14"/>
-    </row>
-    <row r="89" spans="1:3">
+      <c r="D88" s="14"/>
+    </row>
+    <row r="89" spans="1:10">
       <c r="A89" s="4"/>
       <c r="B89" s="4"/>
       <c r="C89"/>
-    </row>
-    <row r="90" spans="1:3">
+      <c r="D89"/>
+    </row>
+    <row r="90" spans="1:10">
       <c r="A90" s="14"/>
       <c r="B90" s="14"/>
       <c r="C90" s="14"/>
+      <c r="D90" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>